--- a/biology/Botanique/Hedysarum_coronarium/Hedysarum_coronarium.xlsx
+++ b/biology/Botanique/Hedysarum_coronarium/Hedysarum_coronarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedysarum coronarium est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire du Maghreb et d'Espagne. On le trouve en Europe du Sud, en Australie, en Inde, au Brésil et en Nouvelle-Zélande.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sainfoin espagnol ou italien, mélilot français, trèfle italien, trèfle à couronne, Hédysarum à bouquets, Sulla coronaria.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedysarum coronarium est une plante vivace herbacée mesurant de 30 à 150 cm. Elle forme une racine pivotante et est tolérante à la sécheresse.
 Les feuilles atteignant 15 cm de long, sont pennées non appariées avec 5 à 11 feuilles pennées. Les folioles de forme elliptique, ovale ou obovale ont une longueur de 1,5 à 4 cm et une largeur de 0,8 à 2 cm, la foliole terminale étant légèrement plus grande que les folioles latérales. Le dessus des folioles est lisse, le dessous et le bord des feuilles est très poilu.
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante pousse sur des sols profonds et argileux. Elle ne tolère pas les sols acides, salins, froids ou sableux.
 </t>
@@ -607,7 +625,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sainfoin espagnol est aujourd'hui principalement cultivé comme plante fourragère. 
 Il est parfois cultivé comme plante ornementale dans les jardins.
